--- a/Team-Data/2007-08/2-20-2007-08.xlsx
+++ b/Team-Data/2007-08/2-20-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.423</v>
+        <v>0.431</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,37 +751,37 @@
         <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.329</v>
+        <v>0.324</v>
       </c>
       <c r="O2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>12.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U2" t="n">
         <v>21.1</v>
@@ -723,7 +790,7 @@
         <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X2" t="n">
         <v>5.8</v>
@@ -732,19 +799,19 @@
         <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -753,16 +820,16 @@
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -792,16 +859,16 @@
         <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788</v>
+        <v>0.804</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U3" t="n">
         <v>21.8</v>
@@ -914,19 +981,19 @@
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,19 +1023,19 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -986,19 +1053,19 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1156,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>16</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
         <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
@@ -1269,7 +1336,7 @@
         <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
@@ -1278,31 +1345,31 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>24</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1338,31 +1405,31 @@
         <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW5" t="n">
         <v>13</v>
       </c>
-      <c r="AW5" t="n">
-        <v>12</v>
-      </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.547</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
         <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
         <v>18.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
@@ -1433,7 +1500,7 @@
         <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1454,25 +1521,25 @@
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
         <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA6" t="n">
         <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1505,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1535,16 +1602,16 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.648</v>
+        <v>0.66</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.462</v>
@@ -1606,40 +1673,40 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O7" t="n">
         <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
         <v>42.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V7" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>21.8</v>
@@ -1648,13 +1715,13 @@
         <v>21.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1669,28 +1736,28 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
@@ -1711,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1726,10 +1793,10 @@
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
@@ -1887,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.722</v>
+        <v>0.736</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,28 +2025,28 @@
         <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="R9" t="n">
         <v>11.6</v>
@@ -1994,7 +2061,7 @@
         <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2006,7 +2073,7 @@
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
@@ -2015,10 +2082,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2084,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J10" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
         <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
@@ -2188,28 +2255,28 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.1</v>
+        <v>109.9</v>
       </c>
       <c r="AC10" t="n">
         <v>2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2233,10 +2300,10 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2245,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2406,16 +2473,16 @@
         <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2448,10 +2515,10 @@
         <v>9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>0.389</v>
+        <v>0.396</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2525,46 +2592,46 @@
         <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
         <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
         <v>15.9</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA12" t="n">
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2579,7 +2646,7 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2603,16 +2670,16 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2621,10 +2688,10 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,46 +2753,46 @@
         <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
         <v>12.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q13" t="n">
         <v>0.79</v>
       </c>
       <c r="R13" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>5.1</v>
@@ -2734,16 +2801,16 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.3</v>
+        <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2752,10 +2819,10 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2770,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,28 +2858,28 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M14" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
         <v>21.6</v>
@@ -2889,28 +2956,28 @@
         <v>28.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2922,22 +2989,22 @@
         <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.4</v>
       </c>
       <c r="AC14" t="n">
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2955,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
@@ -2964,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2976,22 +3043,22 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.264</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
         <v>7.9</v>
@@ -3062,13 +3129,13 @@
         <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.737</v>
@@ -3077,13 +3144,13 @@
         <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
         <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V15" t="n">
         <v>16</v>
@@ -3092,25 +3159,25 @@
         <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>19.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.1</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3131,10 +3198,10 @@
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3164,10 +3231,10 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW15" t="n">
         <v>28</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>29</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
@@ -3182,10 +3249,10 @@
         <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3349,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
@@ -3358,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,16 +3493,16 @@
         <v>16.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
@@ -3444,7 +3511,7 @@
         <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
@@ -3459,22 +3526,22 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z17" t="n">
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3501,13 +3568,13 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>17</v>
@@ -3540,13 +3607,13 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,19 +3738,19 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
@@ -3695,13 +3762,13 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>12</v>
@@ -3713,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.434</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J19" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T19" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
         <v>23.9</v>
@@ -3829,28 +3896,28 @@
         <v>22.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3886,13 +3953,13 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -3942,46 +4009,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.712</v>
+        <v>0.706</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -3996,37 +4063,37 @@
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF20" t="n">
         <v>3</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2</v>
       </c>
       <c r="AG20" t="n">
         <v>3</v>
@@ -4044,7 +4111,7 @@
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
@@ -4065,7 +4132,7 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,46 +4209,46 @@
         <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P21" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q21" t="n">
         <v>0.725</v>
       </c>
       <c r="R21" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
@@ -4193,16 +4260,16 @@
         <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.2</v>
+        <v>-5.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,13 +4281,13 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>24</v>
@@ -4229,19 +4296,19 @@
         <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
         <v>7</v>
@@ -4256,25 +4323,25 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.607</v>
+        <v>0.618</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.469</v>
@@ -4336,37 +4403,37 @@
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
         <v>4.3</v>
@@ -4378,10 +4445,10 @@
         <v>23.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,10 +4457,10 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,10 +4493,10 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4444,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>0.436</v>
+        <v>0.426</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4518,16 +4585,16 @@
         <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.313</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P23" t="n">
         <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
@@ -4539,31 +4606,31 @@
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4575,19 +4642,19 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4602,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,16 +4681,16 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>11</v>
@@ -4638,10 +4705,10 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -4670,67 +4737,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.698</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
         <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R24" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S24" t="n">
         <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
         <v>27.2</v>
       </c>
       <c r="V24" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
@@ -4739,16 +4806,16 @@
         <v>19.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.1</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4954,7 +5021,7 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -5005,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.472</v>
+        <v>0.462</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
@@ -5052,43 +5119,43 @@
         <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P26" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="Q26" t="n">
         <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T26" t="n">
         <v>40.1</v>
       </c>
       <c r="U26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V26" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
@@ -5097,58 +5164,58 @@
         <v>3.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5160,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5175,7 +5242,7 @@
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
         <v>23</v>
@@ -5184,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>5.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG27" t="n">
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5324,10 +5391,10 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5345,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>27</v>
@@ -5500,7 +5567,7 @@
         <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -5542,13 +5609,13 @@
         <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J29" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.424</v>
+        <v>0.421</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P29" t="n">
         <v>20.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>3.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA29" t="n">
         <v>18</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,16 +5737,16 @@
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5715,25 +5782,25 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>6</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>6.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5876,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5885,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,10 +6104,10 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6052,10 +6119,10 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6070,7 +6137,7 @@
         <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6079,16 +6146,16 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2007-08</t>
+          <t>2008-02-20</t>
         </is>
       </c>
     </row>
